--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="178">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -333,7 +333,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> experienced symptoms such as diarrhea or vomiting recently?</t>
+      <t xml:space="preserve"> experienced symptoms such as diarrhoea or vomiting recently?</t>
     </r>
   </si>
   <si>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">advice_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Advice patient on the importance of maintaining hygiene to prevent Cholera.</t>
+    <t xml:space="preserve">&lt;p style=”color:green;”&gt;Advice patient on the importance of maintaining hygiene to prevent Cholera&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${initial_symptoms}, ‘no’)</t>
@@ -358,10 +358,19 @@
     <t xml:space="preserve">crucial_symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Has ${patient_name} exhibited the following symptoms in the last 24 hours?</t>
+    <t xml:space="preserve">Is the patient experiencing the following symptoms?</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${initial_symptoms}, ‘yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many motions in 24 hrs?</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple symptoms</t>
@@ -446,10 +455,16 @@
     <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">advise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client is doing well, encourage them to continue watching on hygiene and sanitation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">facility_recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Please recommend ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">Recommendation &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${patient_well_being}, ‘worsening’)  or selected(${patient_well_being}, ‘emergency’)   </t>
@@ -458,19 +473,10 @@
     <t xml:space="preserve">h1 red</t>
   </si>
   <si>
-    <t xml:space="preserve">findings_assessment</t>
+    <t xml:space="preserve">recommend</t>
   </si>
   <si>
-    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symptoms_shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${crucial_symptoms}</t>
+    <t xml:space="preserve">Please recommend ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">the_findings_followup</t>
@@ -479,10 +485,13 @@
     <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
     <t xml:space="preserve">todo_task</t>
   </si>
   <si>
-    <t xml:space="preserve">Follow up task will appear in 3 days </t>
+    <t xml:space="preserve">Follow up within 3 days </t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -518,40 +527,46 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute watery Diarrhea including for patients in the 2-5 year range</t>
+    <t xml:space="preserve">acute_watery_diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Profuse effortless watery diarrhoea (i.e. more than 3 motions in 24 hours of sudden onset with or without vomiting in a person over 5 years old).</t>
+    <t xml:space="preserve">Acute watery Diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profuse_effortless_watery_diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profuse effortless watery diarrhoea</t>
   </si>
   <si>
     <t xml:space="preserve">symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">dehydration</t>
   </si>
   <si>
     <t xml:space="preserve">Dehydration</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">muscle_cramps</t>
   </si>
   <si>
     <t xml:space="preserve">Muscle Cramps</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">rapid_heart_rate</t>
   </si>
   <si>
     <t xml:space="preserve">Rapid heart rate</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">low_blood_pressure</t>
   </si>
   <si>
     <t xml:space="preserve">Low blood pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">shock</t>
   </si>
   <si>
     <t xml:space="preserve">Shock</t>
@@ -619,7 +634,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +706,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -848,7 +869,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -989,39 +1010,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,23 +1066,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,13 +1155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI992"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -3077,7 +3102,7 @@
       <c r="D46" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="20"/>
@@ -3150,12 +3175,20 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
@@ -3182,95 +3215,92 @@
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>103</v>
+      <c r="B50" s="24" t="s">
+        <v>106</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="23" t="s">
-        <v>104</v>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="23" t="s">
+        <v>107</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="29" t="s">
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32" t="s">
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="24" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="32" t="s">
         <v>110</v>
       </c>
       <c r="G51" s="28"/>
@@ -3307,7 +3337,7 @@
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="34"/>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="24" t="s">
         <v>113</v>
       </c>
       <c r="G52" s="28"/>
@@ -3344,8 +3374,8 @@
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
-      <c r="F53" s="24" t="s">
-        <v>110</v>
+      <c r="F53" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
@@ -3374,15 +3404,15 @@
         <v>89</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="34"/>
       <c r="F54" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -3410,18 +3440,16 @@
       <c r="A55" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>118</v>
+      <c r="B55" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="26" t="s">
         <v>120</v>
       </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -3449,16 +3477,18 @@
       <c r="A56" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>123</v>
+      <c r="D56" s="33"/>
+      <c r="E56" s="21" t="s">
+        <v>92</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="26"/>
       <c r="F56" s="24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -3486,16 +3516,18 @@
       <c r="A57" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="F57" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
@@ -3523,17 +3555,17 @@
       <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="24"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="24" t="s">
-        <v>124</v>
+      <c r="E58" s="26" t="s">
+        <v>125</v>
       </c>
+      <c r="F58" s="24"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
@@ -3557,20 +3589,12 @@
       <c r="AA58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="A59" s="33"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="24"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="F59" s="24"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -3593,34 +3617,110 @@
       <c r="Z59" s="31"/>
       <c r="AA59" s="31"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="s">
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+    </row>
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="31"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
+    </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4551,13 +4651,16 @@
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A40" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I40 D42:D48" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I40 D42:D49" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4580,10 +4683,10 @@
   <dimension ref="A1:V996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -4591,140 +4694,140 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>131</v>
+      <c r="A1" s="37" t="s">
+        <v>134</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="H1" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>139</v>
+      <c r="C2" s="46" t="s">
+        <v>142</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="B3" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>1</v>
+      <c r="B5" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4750,11 +4853,11 @@
       <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>2</v>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4802,13 +4905,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -4832,13 +4935,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4862,13 +4965,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4892,13 +4995,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4922,13 +5025,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -4976,13 +5079,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5006,13 +5109,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5036,13 +5139,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -28606,7 +28709,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -28616,87 +28719,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="C1" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="D1" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="49" t="n">
+      <c r="C2" s="50" t="n">
         <f aca="true">NOW()</f>
-        <v>45245.4139197695</v>
+        <v>45252.7452305055</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>170</v>
+      <c r="D2" s="46" t="s">
+        <v>175</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>171</v>
+      <c r="E2" s="46" t="s">
+        <v>176</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
-        <v>172</v>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51" t="s">
+        <v>177</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -614,9 +614,6 @@
     <t xml:space="preserve">default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">household Member Assessment</t>
-  </si>
-  <si>
     <t xml:space="preserve">pages</t>
   </si>
   <si>
@@ -634,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -706,12 +703,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -869,7 +860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,51 +1001,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,7 +1049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,7 +1057,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,11 +1144,11 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -3480,7 +3467,7 @@
       <c r="B56" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="33"/>
@@ -3516,7 +3503,7 @@
       <c r="A57" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -3555,7 +3542,7 @@
       <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="25" t="s">
@@ -3590,7 +3577,7 @@
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="33"/>
-      <c r="B59" s="36"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="25"/>
       <c r="D59" s="24"/>
       <c r="E59" s="26"/>
@@ -3621,7 +3608,7 @@
       <c r="A60" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -3660,7 +3647,7 @@
       <c r="A61" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C61" s="25" t="s">
@@ -4686,7 +4673,7 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -4694,130 +4681,130 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
@@ -28705,11 +28692,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -28719,87 +28706,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="49" t="n">
+        <f aca="true">NOW()</f>
+        <v>45259.741575122</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="50" t="n">
-        <f aca="true">NOW()</f>
-        <v>45252.7452305055</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -333,7 +333,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> experienced symptoms such as diarrhoea or vomiting recently?</t>
+      <t xml:space="preserve"> experienced symptoms such as diarrhea or vomiting recently?</t>
     </r>
   </si>
   <si>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">acute_watery_diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute watery Diarrhea</t>
+    <t xml:space="preserve">Acute watery diarrhea</t>
   </si>
   <si>
     <t xml:space="preserve">profuse_effortless_watery_diarrhoea</t>
   </si>
   <si>
-    <t xml:space="preserve">Profuse effortless watery diarrhoea</t>
+    <t xml:space="preserve">Profuse effortless watery diarrhea</t>
   </si>
   <si>
     <t xml:space="preserve">symptoms</t>
@@ -1144,11 +1144,11 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -4670,10 +4670,10 @@
   <dimension ref="A1:V996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -28692,11 +28692,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="C2" s="49" t="n">
         <f aca="true">NOW()</f>
-        <v>45259.741575122</v>
+        <v>45260.0007077153</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>174</v>

--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="192">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">advice_note</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p style=”color:green;”&gt;Advice patient on the importance of maintaining hygiene to prevent Cholera&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;p style=”color:green;”&gt;Advise patient on the importance of maintaining hygiene to prevent Cholera&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${initial_symptoms}, ‘no’)</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">crucial_symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the patient experiencing the following symptoms?</t>
+    <t xml:space="preserve">What kind of diarrhea Is the patient experiencing?</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${initial_symptoms}, ‘yes’)</t>
@@ -373,13 +373,40 @@
     <t xml:space="preserve">How many motions in 24 hrs?</t>
   </si>
   <si>
-    <t xml:space="preserve">select_multiple symptoms</t>
+    <t xml:space="preserve">symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">other_symptoms</t>
+    <t xml:space="preserve">Which other symptom does the patient have?</t>
   </si>
   <si>
-    <t xml:space="preserve">Which other signs does ${patient_name} have?</t>
+    <t xml:space="preserve">dehydration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle_cramps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle Cramps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapid_heart_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid heart rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low_blood_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomits everything</t>
   </si>
   <si>
     <t xml:space="preserve">select_one condition</t>
@@ -455,6 +482,339 @@
     <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">the_findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${patient_well_being}, ‘worsening’)  or selected(${patient_well_being}, ‘emergency’)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client has the following conditions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kind</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Has ${crucial_symptoms} of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">} motions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydrate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">dehydration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">muscle_cramps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rapid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">rapid_heart_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">low_blood_pressure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">shoc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">shock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">advise</t>
   </si>
   <si>
@@ -467,25 +827,19 @@
     <t xml:space="preserve">Recommendation &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${patient_well_being}, ‘worsening’)  or selected(${patient_well_being}, ‘emergency’)   </t>
-  </si>
-  <si>
     <t xml:space="preserve">h1 red</t>
   </si>
   <si>
     <t xml:space="preserve">recommend</t>
   </si>
   <si>
-    <t xml:space="preserve">Please recommend ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">Refer ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">the_findings_followup</t>
   </si>
   <si>
     <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
   </si>
   <si>
     <t xml:space="preserve">todo_task</t>
@@ -530,43 +884,13 @@
     <t xml:space="preserve">acute_watery_diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute watery diarrhea</t>
+    <t xml:space="preserve">Acute watery Diarrhea</t>
   </si>
   <si>
     <t xml:space="preserve">profuse_effortless_watery_diarrhoea</t>
   </si>
   <si>
-    <t xml:space="preserve">Profuse effortless watery diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle_cramps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle Cramps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapid_heart_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapid heart rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low_blood_pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shock</t>
+    <t xml:space="preserve">Profuse effortless watery diarrhoea</t>
   </si>
   <si>
     <t xml:space="preserve">Shock</t>
@@ -631,7 +955,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +1015,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -703,6 +1033,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -860,7 +1202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -953,6 +1295,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,11 +1311,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,7 +1323,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,43 +1351,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1049,7 +1403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,7 +1411,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,13 +1496,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1048576"/>
+  <dimension ref="A1:AI1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -3119,19 +3473,17 @@
       <c r="AD46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F47" s="20"/>
@@ -3161,14 +3513,14 @@
       <c r="AD47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>88</v>
@@ -3203,13 +3555,21 @@
       <c r="AD48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -3236,493 +3596,1057 @@
       <c r="AC49" s="20"/>
       <c r="AD49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="25" t="s">
+      <c r="B56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33" t="s">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+      <c r="L56" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="M56" s="28"/>
       <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+    </row>
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+    </row>
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C59" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="26" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+    </row>
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="s">
+      <c r="C60" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+    </row>
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="25" t="s">
+      <c r="B61" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33" t="s">
+      <c r="C61" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+    </row>
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="25" t="s">
+      <c r="B62" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="24" t="s">
+      <c r="C62" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="s">
+      <c r="D62" s="25"/>
+      <c r="E62" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B63" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="F63" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+    </row>
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+    </row>
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+    </row>
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="32"/>
+    </row>
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="32"/>
+      <c r="AA67" s="32"/>
+    </row>
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="32"/>
+      <c r="AA68" s="32"/>
+    </row>
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="32"/>
+      <c r="AA69" s="32"/>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="34"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="32"/>
+    </row>
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="32"/>
+      <c r="AA71" s="32"/>
+    </row>
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+    </row>
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="32"/>
+      <c r="AA73" s="32"/>
+    </row>
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="34"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+    </row>
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="32"/>
+      <c r="AA75" s="32"/>
+    </row>
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="32"/>
+      <c r="AA76" s="32"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="31"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="31"/>
+      <c r="Y77" s="31"/>
+      <c r="Z77" s="32"/>
+      <c r="AA77" s="32"/>
+    </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4640,14 +5564,28 @@
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A40" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I40 D42:D49" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I40 D42:D55" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4670,10 +5608,10 @@
   <dimension ref="A1:V996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -4681,140 +5619,140 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+      <c r="D1" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="C2" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="A3" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4841,10 +5779,10 @@
         <v>94</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4892,13 +5830,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -4922,13 +5860,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4952,13 +5890,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4982,13 +5920,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5012,13 +5950,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -5066,13 +6004,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5096,13 +6034,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5126,13 +6064,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -28696,7 +29634,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -28706,87 +29644,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="A1" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="49" t="n">
+      <c r="C2" s="52" t="n">
         <f aca="true">NOW()</f>
-        <v>45260.0007077153</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+        <v>45261.3235933982</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -509,6 +509,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Has ${crucial_symptoms} of  </t>
     </r>
@@ -518,6 +519,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${</t>
     </r>
@@ -527,6 +529,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">duration</t>
     </r>
@@ -536,6 +539,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">} motions</t>
     </r>
@@ -545,6 +549,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -569,6 +574,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dehydration</t>
     </r>
@@ -588,6 +594,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -622,6 +629,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">muscle_cramps</t>
     </r>
@@ -641,6 +649,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -675,6 +684,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">rapid_heart_rate</t>
     </r>
@@ -694,6 +704,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -728,6 +739,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">low_blood_pressure</t>
     </r>
@@ -747,6 +759,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -781,6 +794,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">shock</t>
     </r>
@@ -800,6 +814,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -815,6 +830,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">the_finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-medkit" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">advise</t>
   </si>
   <si>
@@ -824,7 +845,7 @@
     <t xml:space="preserve">facility_recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Recommendation &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">Referral &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">h1 red</t>
@@ -955,7 +976,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1015,12 +1036,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1033,18 +1048,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1202,7 +1205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1295,10 +1298,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1311,11 +1310,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,7 +1322,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1351,51 +1350,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1403,7 +1402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1411,7 +1410,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1498,11 +1497,11 @@
   </sheetPr>
   <dimension ref="A1:AI1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -3473,7 +3472,7 @@
       <c r="AD46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -3513,7 +3512,7 @@
       <c r="AD47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -3555,7 +3554,7 @@
       <c r="AD48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -3597,7 +3596,7 @@
       <c r="AD49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3639,7 +3638,7 @@
       <c r="AD50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3681,7 +3680,7 @@
       <c r="AD51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -3723,7 +3722,7 @@
       <c r="AD52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="10"/>
       <c r="D53" s="20"/>
@@ -3833,819 +3832,829 @@
       <c r="AD55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="24" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="30" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="33" t="s">
+      <c r="D57" s="32"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="25" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="34" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="25" t="s">
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="25" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="24"/>
+      <c r="E62" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="24"/>
+      <c r="E64" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="38" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="35" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="38" t="s">
+      <c r="D66" s="24"/>
+      <c r="E66" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="31"/>
+      <c r="AA66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="35" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="38" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="31"/>
+      <c r="AA67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>144</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="38" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="35" t="s">
         <v>146</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="38" t="s">
+      <c r="D69" s="24"/>
+      <c r="E69" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="31"/>
+      <c r="AA69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
+      <c r="A70" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="34"/>
+      <c r="B71" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="33"/>
       <c r="E71" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="32"/>
-      <c r="AA71" s="32"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="31"/>
+      <c r="AA71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="27" t="s">
+      <c r="B72" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="32"/>
+      <c r="F72" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="27" t="s">
+      <c r="B73" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="32"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="34"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="32"/>
-      <c r="AA74" s="32"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="31"/>
+      <c r="AA74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="27" t="s">
+      <c r="B75" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="31"/>
+      <c r="AA75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="27" t="s">
+      <c r="B76" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="31"/>
+      <c r="AA76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="31"/>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="31"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="31"/>
+      <c r="AA77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5611,7 +5620,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -5619,140 +5628,140 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="H1" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="C2" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
+      <c r="B3" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5779,10 +5788,10 @@
         <v>94</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5956,7 +5965,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6004,13 +6013,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6034,13 +6043,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6064,13 +6073,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -29634,7 +29643,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -29644,87 +29653,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="F1" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="52" t="n">
+      <c r="C2" s="51" t="n">
         <f aca="true">NOW()</f>
-        <v>45261.3235933982</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="53" t="s">
+        <v>45266.7302626403</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
+      <c r="E2" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/household_member_assessment.xlsx
+++ b/forms/app/household_member_assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="194">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">acute_watery_diarrhea</t>
+    <t xml:space="preserve">acute watery diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute watery Diarrhea</t>
+    <t xml:space="preserve">Acute watery diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">profuse_effortless_watery_diarrhoea</t>
+    <t xml:space="preserve">profuse effortless watery diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Profuse effortless watery diarrhoea</t>
+    <t xml:space="preserve">Profuse effortless watery diarrhea</t>
   </si>
   <si>
     <t xml:space="preserve">Shock</t>
@@ -1497,11 +1497,11 @@
   </sheetPr>
   <dimension ref="A1:AI1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -3726,9 +3726,7 @@
       <c r="B53" s="19"/>
       <c r="C53" s="10"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="22" t="s">
-        <v>96</v>
-      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -5616,11 +5614,11 @@
   </sheetPr>
   <dimension ref="A1:V996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.88"/>
@@ -29643,7 +29641,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.51"/>
@@ -29703,7 +29701,7 @@
       </c>
       <c r="C2" s="51" t="n">
         <f aca="true">NOW()</f>
-        <v>45266.7302626403</v>
+        <v>45317.3570401199</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>191</v>
